--- a/发货单.xlsx
+++ b/发货单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -164,13 +164,45 @@
 LT20251009002</t>
   </si>
   <si>
+    <t>南京天天环保设备有限公司</t>
+  </si>
+  <si>
+    <t>LD65-20G/2SWHCJ</t>
+  </si>
+  <si>
+    <t>收货/山东省/济南市/博兴县
+兴业四路/王总
+/13012341234</t>
+  </si>
+  <si>
+    <t>LD65-20G/4SWHCJ</t>
+  </si>
+  <si>
+    <t>LD65-20G/5SWHCJ</t>
+  </si>
+  <si>
+    <t>LD65-20G/6SWHCJ</t>
+  </si>
+  <si>
+    <t>LD65-20G/7SWHCJ</t>
+  </si>
+  <si>
+    <t>LD65-20G/8SWHCJ</t>
+  </si>
+  <si>
+    <t>LD65-20G/9SWHCJ</t>
+  </si>
+  <si>
+    <t>LD65-20G/10SWHCJ</t>
+  </si>
+  <si>
+    <t>LD65-20G/11SWHCJ</t>
+  </si>
+  <si>
+    <t>LD65-20G/12SWHCJ</t>
+  </si>
+  <si>
     <t>山东天天环保设备有限公司</t>
-  </si>
-  <si>
-    <t>LD65-20G/2SWHCJ</t>
-  </si>
-  <si>
-    <t>LD65-20G/4SWHCJ</t>
   </si>
 </sst>
 </file>
@@ -183,7 +215,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,12 +240,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
@@ -556,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -631,6 +657,59 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -771,137 +850,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -944,16 +1023,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1267,10 +1361,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1295,7 +1389,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="16"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1309,7 +1403,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="16"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1500,7 +1594,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -1516,20 +1610,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
@@ -1543,7 +1625,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
@@ -1557,7 +1639,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
@@ -1592,10 +1674,10 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3">
@@ -1618,12 +1700,12 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3">
         <v>1100229680</v>
       </c>
@@ -1646,13 +1728,13 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3">
         <v>1100229681</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3">
         <v>3900</v>
@@ -1670,132 +1752,521 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <v>1100229682</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3901</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>217</v>
+      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <v>1100229683</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3902</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>218</v>
+      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <v>1100229684</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3903</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>219</v>
+      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>1100229685</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3904</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>220</v>
+      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>1100229686</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3905</v>
+      </c>
       <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>221</v>
+      </c>
+      <c r="H25" s="3">
+        <v>221</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <v>1100229687</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3906</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>222</v>
+      </c>
+      <c r="H26" s="3">
+        <v>222</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <v>1100229688</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3907</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>223</v>
+      </c>
+      <c r="H27" s="3">
+        <v>223</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
+        <v>1100229689</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3908</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>224</v>
+      </c>
+      <c r="H28" s="3">
+        <v>224</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
         <f>SUM(H18:H20)</f>
         <v>1133</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="10" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="10" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="9"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1100229679</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>683</v>
+      </c>
+      <c r="H36" s="3">
+        <v>683</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="3">
+        <v>1100229680</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>234</v>
+      </c>
+      <c r="H37" s="3">
+        <v>234</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="3">
+        <v>1100229681</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>216</v>
+      </c>
+      <c r="H38" s="3">
+        <v>216</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <f>SUM(H36:H38)</f>
+        <v>1133</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="27">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A16:J16"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
     <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="B36:B43"/>
     <mergeCell ref="J4:J11"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J18:J25"/>
-    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J18:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="J44:J45"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="A30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/发货单.xlsx
+++ b/发货单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -182,21 +182,6 @@
   </si>
   <si>
     <t>LD65-20G/6SWHCJ</t>
-  </si>
-  <si>
-    <t>LD65-20G/7SWHCJ</t>
-  </si>
-  <si>
-    <t>LD65-20G/8SWHCJ</t>
-  </si>
-  <si>
-    <t>LD65-20G/9SWHCJ</t>
-  </si>
-  <si>
-    <t>LD65-20G/10SWHCJ</t>
-  </si>
-  <si>
-    <t>LD65-20G/11SWHCJ</t>
   </si>
   <si>
     <t>LD65-20G/12SWHCJ</t>
@@ -980,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1040,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,10 +1343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1389,7 +1371,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="21"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1403,7 +1385,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="21"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1494,13 +1476,23 @@
     <row r="6" spans="1:10">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="3">
+        <v>1100229680</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>235</v>
+      </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="6"/>
@@ -1508,13 +1500,23 @@
     <row r="7" spans="1:10">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="3">
+        <v>1100229680</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>236</v>
+      </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="6"/>
@@ -1522,13 +1524,23 @@
     <row r="8" spans="1:10">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="3">
+        <v>1100229676</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1072</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>237</v>
+      </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="6"/>
@@ -1536,13 +1548,23 @@
     <row r="9" spans="1:10">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="3">
+        <v>1100229680</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>238</v>
+      </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
@@ -1594,7 +1616,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -1610,7 +1632,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="9"/>
     </row>
     <row r="15" spans="1:10">
@@ -1625,7 +1647,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="21"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
@@ -1639,7 +1661,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="21"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
@@ -1737,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="3">
-        <v>3900</v>
+        <v>3243</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1761,7 +1783,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="3">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1785,7 +1807,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="3">
-        <v>3902</v>
+        <v>8943</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1803,440 +1825,331 @@
       <c r="A23" s="15"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
-        <v>1100229684</v>
+        <v>1100229689</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="3">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H23" s="3">
-        <v>219</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="I23" s="21"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3">
-        <v>1100229685</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3904</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>220</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <v>220</v>
+        <f>SUM(H18:H20)</f>
+        <v>1133</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
-        <v>1100229686</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3905</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="A25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="3">
-        <v>221</v>
-      </c>
-      <c r="H25" s="3">
-        <v>221</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3">
-        <v>1100229687</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3906</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1100229679</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1234</v>
+      </c>
+      <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="3">
-        <v>222</v>
-      </c>
-      <c r="H26" s="3">
-        <v>222</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
-        <v>1100229688</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3907</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G31" s="3">
+        <v>683</v>
+      </c>
+      <c r="H31" s="3">
+        <v>683</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="3">
+        <v>1100229680</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1235</v>
+      </c>
+      <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="3">
-        <v>223</v>
-      </c>
-      <c r="H27" s="3">
-        <v>223</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3">
+      <c r="G32" s="3">
+        <v>234</v>
+      </c>
+      <c r="H32" s="3">
+        <v>234</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3">
+        <v>1100229681</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1236</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>216</v>
+      </c>
+      <c r="H33" s="3">
+        <v>216</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="3">
         <v>1100229689</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3908</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G34" s="3">
         <v>224</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H34" s="3">
         <v>224</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="15"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3">
-        <f>SUM(H18:H20)</f>
-        <v>1133</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="21"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1100229679</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>683</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="3">
-        <v>1100229680</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>234</v>
-      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="3">
-        <v>1100229681</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3900</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>216</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <v>216</v>
+        <f>SUM(H31:H33)</f>
+        <v>1133</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="6"/>
+      <c r="A39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
-        <f>SUM(H36:H38)</f>
-        <v>1133</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="10" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="9"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2246,27 +2159,27 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A16:J16"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
     <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A31:A38"/>
     <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B31:B38"/>
     <mergeCell ref="J4:J11"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J18:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J31:J38"/>
+    <mergeCell ref="J39:J40"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A25:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/发货单.xlsx
+++ b/发货单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27952" windowHeight="12255"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1531,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F8" s="3">
         <v>4</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="3">
-        <v>3243</v>
+        <v>1073</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="3">
-        <v>8943</v>
+        <v>3900</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="3">
-        <v>1234</v>
+        <v>1079</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="3">
-        <v>1235</v>
+        <v>3520</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>27</v>
       </c>
       <c r="E33" s="3">
-        <v>1236</v>
+        <v>3520</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="3">
-        <v>3900</v>
+        <v>3520</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>

--- a/发货单.xlsx
+++ b/发货单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="27952" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -135,7 +135,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>备注2：现货直接发</t>
+    <t>备注2：现货直接发1</t>
   </si>
   <si>
     <r>
@@ -187,7 +187,13 @@
     <t>LD65-20G/12SWHCJ</t>
   </si>
   <si>
+    <t>备注2：现货直接发2</t>
+  </si>
+  <si>
     <t>山东天天环保设备有限公司</t>
+  </si>
+  <si>
+    <t>备注2：现货直接发3</t>
   </si>
 </sst>
 </file>
@@ -1345,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L41" sqref="A14:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1459,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="3">
-        <v>3900</v>
+        <v>1073</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1483,7 +1489,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="3">
-        <v>3900</v>
+        <v>1073</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -1507,7 +1513,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="3">
-        <v>3900</v>
+        <v>1073</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
@@ -1555,7 +1561,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="3">
-        <v>3900</v>
+        <v>1073</v>
       </c>
       <c r="F9" s="3">
         <v>5</v>
@@ -1759,7 +1765,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="3">
-        <v>1073</v>
+        <v>3900</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1883,11 +1889,11 @@
     <row r="26" spans="1:10">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="10" t="s">
-        <v>20</v>
+      <c r="C26" s="10">
+        <v>1</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1961,7 +1967,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3">
         <v>1100229679</v>
@@ -2037,9 +2043,7 @@
     <row r="34" spans="1:10">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="3">
-        <v>1100229689</v>
-      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
@@ -2138,11 +2142,11 @@
     <row r="40" spans="1:10">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="10" t="s">
-        <v>20</v>
+      <c r="C40" s="10">
+        <v>2</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
